--- a/solar/遮蔽.xlsx
+++ b/solar/遮蔽.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C48C79-F61D-4028-B004-4A08971F8269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A93EA-31AD-48BF-991B-61DC4B561768}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4734,82 +4734,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>24.117999999999999</c:v>
+                  <c:v>25.5809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.169599999999999</c:v>
+                  <c:v>25.6615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.216699999999999</c:v>
+                  <c:v>25.737200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.2592</c:v>
+                  <c:v>25.8081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.2971</c:v>
+                  <c:v>25.874099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.330500000000001</c:v>
+                  <c:v>25.935199999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.359300000000001</c:v>
+                  <c:v>25.991299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.383400000000002</c:v>
+                  <c:v>26.0425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.402999999999999</c:v>
+                  <c:v>26.088799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.417899999999999</c:v>
+                  <c:v>26.130099999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.4282</c:v>
+                  <c:v>26.166399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.433900000000001</c:v>
+                  <c:v>26.197700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.434999999999999</c:v>
+                  <c:v>26.224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.4314</c:v>
+                  <c:v>26.2453</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.423200000000001</c:v>
+                  <c:v>26.261500000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.410399999999999</c:v>
+                  <c:v>26.2728</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.392900000000001</c:v>
+                  <c:v>26.279</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.370899999999999</c:v>
+                  <c:v>26.280200000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.344200000000001</c:v>
+                  <c:v>26.276299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.312899999999999</c:v>
+                  <c:v>26.267499999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.277100000000001</c:v>
+                  <c:v>26.253599999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.236699999999999</c:v>
+                  <c:v>26.2346</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.191700000000001</c:v>
+                  <c:v>26.210699999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.142099999999999</c:v>
+                  <c:v>26.181799999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.088000000000001</c:v>
+                  <c:v>26.1478</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.029399999999999</c:v>
+                  <c:v>26.108899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,82 +5155,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>30.1127</c:v>
+                  <c:v>30.3004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.239699999999999</c:v>
+                  <c:v>30.427499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.361000000000001</c:v>
+                  <c:v>30.5488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.476700000000001</c:v>
+                  <c:v>30.664400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.586600000000001</c:v>
+                  <c:v>30.7743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.690799999999999</c:v>
+                  <c:v>30.878399999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.789100000000001</c:v>
+                  <c:v>30.976600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.881599999999999</c:v>
+                  <c:v>31.068999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.968299999999999</c:v>
+                  <c:v>31.1555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.049099999999999</c:v>
+                  <c:v>31.2361</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.123899999999999</c:v>
+                  <c:v>31.3108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.192900000000002</c:v>
+                  <c:v>31.3795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.255800000000001</c:v>
+                  <c:v>31.4422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.312799999999999</c:v>
+                  <c:v>31.498999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.363900000000001</c:v>
+                  <c:v>31.549700000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.408899999999999</c:v>
+                  <c:v>31.5944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.447900000000001</c:v>
+                  <c:v>31.632999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.480799999999999</c:v>
+                  <c:v>31.665600000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.5078</c:v>
+                  <c:v>31.6921</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.528600000000001</c:v>
+                  <c:v>31.712499999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.543500000000002</c:v>
+                  <c:v>31.726900000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.552199999999999</c:v>
+                  <c:v>31.735199999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.5549</c:v>
+                  <c:v>31.737400000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.551600000000001</c:v>
+                  <c:v>31.733499999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.542100000000001</c:v>
+                  <c:v>31.723500000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.526700000000002</c:v>
+                  <c:v>31.7074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,82 +5576,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>27.229299999999999</c:v>
+                  <c:v>28.6922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.284600000000001</c:v>
+                  <c:v>28.776499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.334800000000001</c:v>
+                  <c:v>28.8553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.379899999999999</c:v>
+                  <c:v>28.928799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.419899999999998</c:v>
+                  <c:v>28.9968</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.454799999999999</c:v>
+                  <c:v>29.0594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.484500000000001</c:v>
+                  <c:v>29.116499999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.5091</c:v>
+                  <c:v>29.168199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.528500000000001</c:v>
+                  <c:v>29.214300000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.5428</c:v>
+                  <c:v>29.254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.5519</c:v>
+                  <c:v>29.290099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.555900000000001</c:v>
+                  <c:v>29.319700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.5547</c:v>
+                  <c:v>29.343699999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.548300000000001</c:v>
+                  <c:v>29.362200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.536799999999999</c:v>
+                  <c:v>29.3751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.520099999999999</c:v>
+                  <c:v>29.3825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.4983</c:v>
+                  <c:v>29.384399999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.471299999999999</c:v>
+                  <c:v>29.380600000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.4392</c:v>
+                  <c:v>29.371300000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.402000000000001</c:v>
+                  <c:v>29.3565</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.3596</c:v>
+                  <c:v>29.336099999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.312100000000001</c:v>
+                  <c:v>29.310099999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.259599999999999</c:v>
+                  <c:v>29.278600000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.201899999999998</c:v>
+                  <c:v>29.241599999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.139199999999999</c:v>
+                  <c:v>29.199100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.0715</c:v>
+                  <c:v>29.151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12625,8 +12625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E050598-4E05-49DE-B55B-999343C15C44}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12716,82 +12716,82 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>24.117999999999999</v>
+        <v>25.5809</v>
       </c>
       <c r="C2" s="1">
-        <v>24.169599999999999</v>
+        <v>25.6615</v>
       </c>
       <c r="D2" s="1">
-        <v>24.216699999999999</v>
+        <v>25.737200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>24.2592</v>
+        <v>25.8081</v>
       </c>
       <c r="F2" s="1">
-        <v>24.2971</v>
+        <v>25.874099999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>24.330500000000001</v>
+        <v>25.935199999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>24.359300000000001</v>
+        <v>25.991299999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>24.383400000000002</v>
+        <v>26.0425</v>
       </c>
       <c r="J2" s="1">
-        <v>24.402999999999999</v>
+        <v>26.088799999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>24.417899999999999</v>
+        <v>26.130099999999999</v>
       </c>
       <c r="L2" s="1">
-        <v>24.4282</v>
+        <v>26.166399999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>24.433900000000001</v>
+        <v>26.197700000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>24.434999999999999</v>
+        <v>26.224</v>
       </c>
       <c r="O2" s="1">
-        <v>24.4314</v>
+        <v>26.2453</v>
       </c>
       <c r="P2" s="1">
-        <v>24.423200000000001</v>
+        <v>26.261500000000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>24.410399999999999</v>
+        <v>26.2728</v>
       </c>
       <c r="R2" s="1">
-        <v>24.392900000000001</v>
+        <v>26.279</v>
       </c>
       <c r="S2" s="1">
-        <v>24.370899999999999</v>
+        <v>26.280200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>24.344200000000001</v>
+        <v>26.276299999999999</v>
       </c>
       <c r="U2" s="1">
-        <v>24.312899999999999</v>
+        <v>26.267499999999998</v>
       </c>
       <c r="V2" s="1">
-        <v>24.277100000000001</v>
+        <v>26.253599999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>24.236699999999999</v>
+        <v>26.2346</v>
       </c>
       <c r="X2" s="1">
-        <v>24.191700000000001</v>
+        <v>26.210699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>24.142099999999999</v>
+        <v>26.181799999999999</v>
       </c>
       <c r="Z2" s="1">
-        <v>24.088000000000001</v>
+        <v>26.1478</v>
       </c>
       <c r="AA2" s="1">
-        <v>24.029399999999999</v>
+        <v>26.108899999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -12799,82 +12799,82 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30.1127</v>
+        <v>30.3004</v>
       </c>
       <c r="C3" s="1">
-        <v>30.239699999999999</v>
+        <v>30.427499999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>30.361000000000001</v>
+        <v>30.5488</v>
       </c>
       <c r="E3" s="1">
-        <v>30.476700000000001</v>
+        <v>30.664400000000001</v>
       </c>
       <c r="F3" s="1">
-        <v>30.586600000000001</v>
+        <v>30.7743</v>
       </c>
       <c r="G3" s="1">
-        <v>30.690799999999999</v>
+        <v>30.878399999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>30.789100000000001</v>
+        <v>30.976600000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>30.881599999999999</v>
+        <v>31.068999999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>30.968299999999999</v>
+        <v>31.1555</v>
       </c>
       <c r="K3" s="1">
-        <v>31.049099999999999</v>
+        <v>31.2361</v>
       </c>
       <c r="L3" s="1">
-        <v>31.123899999999999</v>
+        <v>31.3108</v>
       </c>
       <c r="M3" s="1">
-        <v>31.192900000000002</v>
+        <v>31.3795</v>
       </c>
       <c r="N3" s="1">
-        <v>31.255800000000001</v>
+        <v>31.4422</v>
       </c>
       <c r="O3" s="1">
-        <v>31.312799999999999</v>
+        <v>31.498999999999999</v>
       </c>
       <c r="P3" s="1">
-        <v>31.363900000000001</v>
+        <v>31.549700000000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>31.408899999999999</v>
+        <v>31.5944</v>
       </c>
       <c r="R3" s="1">
-        <v>31.447900000000001</v>
+        <v>31.632999999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>31.480799999999999</v>
+        <v>31.665600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>31.5078</v>
+        <v>31.6921</v>
       </c>
       <c r="U3" s="1">
-        <v>31.528600000000001</v>
+        <v>31.712499999999999</v>
       </c>
       <c r="V3" s="1">
-        <v>31.543500000000002</v>
+        <v>31.726900000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>31.552199999999999</v>
+        <v>31.735199999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>31.5549</v>
+        <v>31.737400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>31.551600000000001</v>
+        <v>31.733499999999999</v>
       </c>
       <c r="Z3" s="1">
-        <v>31.542100000000001</v>
+        <v>31.723500000000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>31.526700000000002</v>
+        <v>31.7074</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -12882,82 +12882,82 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>27.229299999999999</v>
+        <v>28.6922</v>
       </c>
       <c r="C4" s="1">
-        <v>27.284600000000001</v>
+        <v>28.776499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>27.334800000000001</v>
+        <v>28.8553</v>
       </c>
       <c r="E4" s="1">
-        <v>27.379899999999999</v>
+        <v>28.928799999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>27.419899999999998</v>
+        <v>28.9968</v>
       </c>
       <c r="G4" s="1">
-        <v>27.454799999999999</v>
+        <v>29.0594</v>
       </c>
       <c r="H4" s="1">
-        <v>27.484500000000001</v>
+        <v>29.116499999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>27.5091</v>
+        <v>29.168199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>27.528500000000001</v>
+        <v>29.214300000000001</v>
       </c>
       <c r="K4" s="1">
-        <v>27.5428</v>
+        <v>29.254999999999999</v>
       </c>
       <c r="L4" s="1">
-        <v>27.5519</v>
+        <v>29.290099999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>27.555900000000001</v>
+        <v>29.319700000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>27.5547</v>
+        <v>29.343699999999998</v>
       </c>
       <c r="O4" s="1">
-        <v>27.548300000000001</v>
+        <v>29.362200000000001</v>
       </c>
       <c r="P4" s="1">
-        <v>27.536799999999999</v>
+        <v>29.3751</v>
       </c>
       <c r="Q4" s="1">
-        <v>27.520099999999999</v>
+        <v>29.3825</v>
       </c>
       <c r="R4" s="1">
-        <v>27.4983</v>
+        <v>29.384399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>27.471299999999999</v>
+        <v>29.380600000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>27.4392</v>
+        <v>29.371300000000002</v>
       </c>
       <c r="U4" s="1">
-        <v>27.402000000000001</v>
+        <v>29.3565</v>
       </c>
       <c r="V4" s="1">
-        <v>27.3596</v>
+        <v>29.336099999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>27.312100000000001</v>
+        <v>29.310099999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>27.259599999999999</v>
+        <v>29.278600000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>27.201899999999998</v>
+        <v>29.241599999999998</v>
       </c>
       <c r="Z4" s="1">
-        <v>27.139199999999999</v>
+        <v>29.199100000000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>27.0715</v>
+        <v>29.151</v>
       </c>
     </row>
   </sheetData>

--- a/solar/遮蔽.xlsx
+++ b/solar/遮蔽.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A93EA-31AD-48BF-991B-61DC4B561768}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56ECBDF-D583-4A4A-BEBB-C08F08C79C40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="2670" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B = 0四季曲線" sheetId="1" r:id="rId1"/>
@@ -693,6 +693,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -758,6 +813,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -941,7 +1072,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13402537182852142"/>
+          <c:y val="0.16203703703703703"/>
+          <c:w val="0.83541907261592296"/>
+          <c:h val="0.6338732137649461"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1432,6 +1573,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1497,6 +1693,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2171,6 +2443,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2236,6 +2563,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2910,6 +3313,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2975,6 +3433,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3649,6 +4183,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3714,6 +4303,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4388,6 +5052,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>小時</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4453,6 +5172,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4840,6 +5635,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4905,6 +5756,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5261,6 +6188,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5326,6 +6308,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5682,6 +6740,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5747,6 +6860,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>太陽照射之有效量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10874,13 +12063,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>366712</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11098,15 +12287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11133,16 +12322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11435,8 +12624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12037,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6341D-2ECA-44F8-ACF0-81350480B1FE}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12625,8 +13814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E050598-4E05-49DE-B55B-999343C15C44}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/solar/遮蔽.xlsx
+++ b/solar/遮蔽.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56ECBDF-D583-4A4A-BEBB-C08F08C79C40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C276AA-B1C5-4482-A2AB-BBA8CABE70C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="2670" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B = 0四季曲線" sheetId="1" r:id="rId1"/>
@@ -693,61 +693,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>小時</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -813,82 +758,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1072,17 +941,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13402537182852142"/>
-          <c:y val="0.16203703703703703"/>
-          <c:w val="0.83541907261592296"/>
-          <c:h val="0.6338732137649461"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1573,61 +1432,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>小時</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1693,82 +1497,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2031,37 +1759,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.115748</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27736699999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43488399999999999</c:v>
+                  <c:v>0.79353300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55096100000000003</c:v>
+                  <c:v>0.97733999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61616499999999996</c:v>
+                  <c:v>1.08565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.636409</c:v>
+                  <c:v>1.1208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61616499999999996</c:v>
+                  <c:v>1.08565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55096100000000003</c:v>
+                  <c:v>0.97733999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43488399999999999</c:v>
+                  <c:v>0.79353300000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27736699999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.115748</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,37 +1876,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.15382100000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31151699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45829199999999998</c:v>
+                  <c:v>0.84033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56507499999999999</c:v>
+                  <c:v>1.01189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62518499999999999</c:v>
+                  <c:v>1.11317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64395800000000003</c:v>
+                  <c:v>1.14615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62518499999999999</c:v>
+                  <c:v>1.11317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56507499999999999</c:v>
+                  <c:v>1.01189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45829199999999998</c:v>
+                  <c:v>0.84033899999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31151699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15382100000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,37 +1993,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.1989399999999995E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22980800000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.395428</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51998200000000006</c:v>
+                  <c:v>0.90677200000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58986000000000005</c:v>
+                  <c:v>1.02017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.611398</c:v>
+                  <c:v>1.0568299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58986000000000005</c:v>
+                  <c:v>1.02017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51998200000000006</c:v>
+                  <c:v>0.90677200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.395428</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22980800000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1989399999999995E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,13 +2122,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.78067900000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.81616200000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.78067900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2443,61 +2171,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>小時</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2563,82 +2236,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3313,61 +2910,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>小時</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3433,82 +2975,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4183,61 +3649,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>小時</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4303,81 +3714,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4640,37 +3976,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.9246500000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20022699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34895900000000002</c:v>
+                  <c:v>0.70110300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46328599999999998</c:v>
+                  <c:v>0.88798999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52940100000000001</c:v>
+                  <c:v>0.99976900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55028699999999997</c:v>
+                  <c:v>1.0362800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52940100000000001</c:v>
+                  <c:v>0.99976900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46328599999999998</c:v>
+                  <c:v>0.88798999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34895900000000002</c:v>
+                  <c:v>0.70110300000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20022699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9246500000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,37 +4093,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.5496800000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.158331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28820200000000001</c:v>
+                  <c:v>0.64693400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38970300000000002</c:v>
+                  <c:v>0.81717700000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44974599999999998</c:v>
+                  <c:v>0.92059100000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.469053</c:v>
+                  <c:v>0.95474599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44974599999999998</c:v>
+                  <c:v>0.92059100000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38970300000000002</c:v>
+                  <c:v>0.81717700000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28820200000000001</c:v>
+                  <c:v>0.64693400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.158331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5496800000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,37 +4210,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.5305899999999995E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.239369</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41132600000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54056599999999999</c:v>
+                  <c:v>0.94611699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.613043</c:v>
+                  <c:v>1.06514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63537500000000002</c:v>
+                  <c:v>1.10341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.613043</c:v>
+                  <c:v>1.06514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54056599999999999</c:v>
+                  <c:v>0.94611699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41132600000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.239369</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5305899999999995E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,13 +4339,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.1259300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5052,61 +4388,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>小時</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5172,82 +4453,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5635,62 +4840,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>度</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5756,82 +4905,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6188,61 +5261,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6308,82 +5326,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6740,61 +5682,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6860,82 +5747,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>太陽照射之有效量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>相對量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12063,13 +10874,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>61912</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>366712</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12287,15 +11098,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12322,16 +11133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12624,8 +11435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13067,37 +11878,37 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>0.115748</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0.27736699999999997</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.43488399999999999</v>
+        <v>0.79353300000000004</v>
       </c>
       <c r="E12" s="1">
-        <v>0.55096100000000003</v>
+        <v>0.97733999999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>0.61616499999999996</v>
+        <v>1.08565</v>
       </c>
       <c r="G12" s="1">
-        <v>0.636409</v>
+        <v>1.1208</v>
       </c>
       <c r="H12" s="1">
-        <v>0.61616499999999996</v>
+        <v>1.08565</v>
       </c>
       <c r="I12" s="1">
-        <v>0.55096100000000003</v>
+        <v>0.97733999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.43488399999999999</v>
+        <v>0.79353300000000004</v>
       </c>
       <c r="K12" s="1">
-        <v>0.27736699999999997</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0.115748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -13105,37 +11916,37 @@
         <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.15382100000000001</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0.31151699999999999</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.45829199999999998</v>
+        <v>0.84033899999999995</v>
       </c>
       <c r="E13" s="1">
-        <v>0.56507499999999999</v>
+        <v>1.01189</v>
       </c>
       <c r="F13" s="1">
-        <v>0.62518499999999999</v>
+        <v>1.11317</v>
       </c>
       <c r="G13" s="1">
-        <v>0.64395800000000003</v>
+        <v>1.14615</v>
       </c>
       <c r="H13" s="1">
-        <v>0.62518499999999999</v>
+        <v>1.11317</v>
       </c>
       <c r="I13" s="1">
-        <v>0.56507499999999999</v>
+        <v>1.01189</v>
       </c>
       <c r="J13" s="1">
-        <v>0.45829199999999998</v>
+        <v>0.84033899999999995</v>
       </c>
       <c r="K13" s="1">
-        <v>0.31151699999999999</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0.15382100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -13143,37 +11954,37 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>7.1989399999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0.22980800000000001</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.395428</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.51998200000000006</v>
+        <v>0.90677200000000002</v>
       </c>
       <c r="F14" s="1">
-        <v>0.58986000000000005</v>
+        <v>1.02017</v>
       </c>
       <c r="G14" s="1">
-        <v>0.611398</v>
+        <v>1.0568299999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>0.58986000000000005</v>
+        <v>1.02017</v>
       </c>
       <c r="I14" s="1">
-        <v>0.51998200000000006</v>
+        <v>0.90677200000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.395428</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.22980800000000001</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>7.1989399999999995E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -13193,13 +12004,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>0.78067900000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>0.81616200000000005</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>0.78067900000000001</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -13217,7 +12028,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13226,8 +12037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6341D-2ECA-44F8-ACF0-81350480B1FE}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13655,37 +12466,37 @@
         <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>5.9246500000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0.20022699999999999</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.34895900000000002</v>
+        <v>0.70110300000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.46328599999999998</v>
+        <v>0.88798999999999995</v>
       </c>
       <c r="F13" s="1">
-        <v>0.52940100000000001</v>
+        <v>0.99976900000000002</v>
       </c>
       <c r="G13" s="1">
-        <v>0.55028699999999997</v>
+        <v>1.0362800000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>0.52940100000000001</v>
+        <v>0.99976900000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>0.46328599999999998</v>
+        <v>0.88798999999999995</v>
       </c>
       <c r="J13" s="1">
-        <v>0.34895900000000002</v>
+        <v>0.70110300000000003</v>
       </c>
       <c r="K13" s="1">
-        <v>0.20022699999999999</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>5.9246500000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -13693,37 +12504,37 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>3.5496800000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0.158331</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.28820200000000001</v>
+        <v>0.64693400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.38970300000000002</v>
+        <v>0.81717700000000004</v>
       </c>
       <c r="F14" s="1">
-        <v>0.44974599999999998</v>
+        <v>0.92059100000000005</v>
       </c>
       <c r="G14" s="1">
-        <v>0.469053</v>
+        <v>0.95474599999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>0.44974599999999998</v>
+        <v>0.92059100000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>0.38970300000000002</v>
+        <v>0.81717700000000004</v>
       </c>
       <c r="J14" s="1">
-        <v>0.28820200000000001</v>
+        <v>0.64693400000000001</v>
       </c>
       <c r="K14" s="1">
-        <v>0.158331</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>3.5496800000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -13731,37 +12542,37 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>7.5305899999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0.239369</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.41132600000000002</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.54056599999999999</v>
+        <v>0.94611699999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>0.613043</v>
+        <v>1.06514</v>
       </c>
       <c r="G15" s="1">
-        <v>0.63537500000000002</v>
+        <v>1.10341</v>
       </c>
       <c r="H15" s="1">
-        <v>0.613043</v>
+        <v>1.06514</v>
       </c>
       <c r="I15" s="1">
-        <v>0.54056599999999999</v>
+        <v>0.94611699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.41132600000000002</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.239369</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>7.5305899999999995E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -13781,13 +12592,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1.0882000000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1.1259300000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1.0882000000000001</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -13805,7 +12616,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13814,8 +12625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E050598-4E05-49DE-B55B-999343C15C44}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14152,7 +12963,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/solar/遮蔽.xlsx
+++ b/solar/遮蔽.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C276AA-B1C5-4482-A2AB-BBA8CABE70C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68758BF3-2F21-475E-BA60-BCEA18E3B835}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B = 0四季曲線" sheetId="1" r:id="rId1"/>
@@ -4578,37 +4578,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4638,7 +4608,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4647,82 +4629,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,82 +4716,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>25.5809</c:v>
+                  <c:v>1649.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.6615</c:v>
+                  <c:v>1649.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.737200000000001</c:v>
+                  <c:v>1650.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.8081</c:v>
+                  <c:v>1650.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.874099999999999</c:v>
+                  <c:v>1650.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.935199999999998</c:v>
+                  <c:v>1649.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.991299999999999</c:v>
+                  <c:v>1649.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.0425</c:v>
+                  <c:v>1648.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.088799999999999</c:v>
+                  <c:v>1646.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.130099999999999</c:v>
+                  <c:v>1644.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.166399999999999</c:v>
+                  <c:v>1642.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.197700000000001</c:v>
+                  <c:v>1640.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.224</c:v>
+                  <c:v>1637.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.2453</c:v>
+                  <c:v>1634.97</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.261500000000002</c:v>
+                  <c:v>1631.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.2728</c:v>
+                  <c:v>1628.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.279</c:v>
+                  <c:v>1624.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.280200000000001</c:v>
+                  <c:v>1620.13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.276299999999999</c:v>
+                  <c:v>1615.66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.267499999999998</c:v>
+                  <c:v>1610.89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.253599999999999</c:v>
+                  <c:v>1605.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.2346</c:v>
+                  <c:v>1600.46</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.210699999999999</c:v>
+                  <c:v>1594.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.181799999999999</c:v>
+                  <c:v>1588.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.1478</c:v>
+                  <c:v>1582.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.108899999999998</c:v>
+                  <c:v>1576.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,6 +4811,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1568376287"/>
         <c:axId val="1573361807"/>
@@ -4840,6 +4823,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4905,6 +4943,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>照射年總量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4999,39 +5105,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14749759405074367"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.81639129483814521"/>
+          <c:h val="0.73977653834937296"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5059,7 +5145,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5068,82 +5166,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,82 +5253,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>30.3004</c:v>
+                  <c:v>2762.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.427499999999998</c:v>
+                  <c:v>2773.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5488</c:v>
+                  <c:v>2784.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.664400000000001</c:v>
+                  <c:v>2794.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.7743</c:v>
+                  <c:v>2804.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.878399999999999</c:v>
+                  <c:v>2813.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.976600000000001</c:v>
+                  <c:v>2821.74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.068999999999999</c:v>
+                  <c:v>2829.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.1555</c:v>
+                  <c:v>2837.17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.2361</c:v>
+                  <c:v>2844.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.3108</c:v>
+                  <c:v>2850.41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.3795</c:v>
+                  <c:v>2856.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.4422</c:v>
+                  <c:v>2861.46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.498999999999999</c:v>
+                  <c:v>2866.15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.549700000000001</c:v>
+                  <c:v>2870.29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.5944</c:v>
+                  <c:v>2873.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.632999999999999</c:v>
+                  <c:v>2876.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.665600000000001</c:v>
+                  <c:v>2879.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.6921</c:v>
+                  <c:v>2881.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.712499999999999</c:v>
+                  <c:v>2882.63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.726900000000001</c:v>
+                  <c:v>2883.42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.735199999999999</c:v>
+                  <c:v>2883.65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.737400000000001</c:v>
+                  <c:v>2883.32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.733499999999999</c:v>
+                  <c:v>2882.42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.723500000000001</c:v>
+                  <c:v>2880.97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.7074</c:v>
+                  <c:v>2878.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5250,6 +5348,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1577418351"/>
         <c:axId val="1577697343"/>
@@ -5261,6 +5360,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5326,6 +5481,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>照射年總量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5420,37 +5643,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5480,7 +5673,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5489,82 +5694,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,82 +5781,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>28.6922</c:v>
+                  <c:v>2588.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.776499999999999</c:v>
+                  <c:v>2596.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.8553</c:v>
+                  <c:v>2603.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.928799999999999</c:v>
+                  <c:v>2610.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.9968</c:v>
+                  <c:v>2616.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0594</c:v>
+                  <c:v>2622.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.116499999999998</c:v>
+                  <c:v>2627.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.168199999999999</c:v>
+                  <c:v>2632.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.214300000000001</c:v>
+                  <c:v>2636.97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.254999999999999</c:v>
+                  <c:v>2640.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.290099999999999</c:v>
+                  <c:v>2643.99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.319700000000001</c:v>
+                  <c:v>2646.74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.343699999999998</c:v>
+                  <c:v>2648.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.362200000000001</c:v>
+                  <c:v>2650.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.3751</c:v>
+                  <c:v>2651.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.3825</c:v>
+                  <c:v>2652.66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.384399999999999</c:v>
+                  <c:v>2652.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.380600000000001</c:v>
+                  <c:v>2652.58</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.371300000000002</c:v>
+                  <c:v>2651.77</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.3565</c:v>
+                  <c:v>2650.46</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.336099999999998</c:v>
+                  <c:v>2648.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.310099999999998</c:v>
+                  <c:v>2646.31</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.278600000000001</c:v>
+                  <c:v>2643.47</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.241599999999998</c:v>
+                  <c:v>2640.13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.199100000000001</c:v>
+                  <c:v>2636.28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.151</c:v>
+                  <c:v>2631.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,6 +5876,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1626908671"/>
         <c:axId val="1818003839"/>
@@ -5682,6 +5888,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>度</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5747,6 +6009,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>照射年總量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>相對量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9284,7 +9614,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9392,11 +9722,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9407,11 +9732,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9443,9 +9763,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9800,7 +10117,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9908,11 +10225,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9923,11 +10235,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9959,9 +10266,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10316,7 +10620,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10424,11 +10728,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10439,11 +10738,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10475,9 +10769,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11062,15 +11353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
+      <xdr:colOff>585787</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11097,16 +11388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:colOff>385762</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11136,13 +11427,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12037,8 +12328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E6341D-2ECA-44F8-ACF0-81350480B1FE}">
   <dimension ref="A2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12625,90 +12916,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E050598-4E05-49DE-B55B-999343C15C44}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -12716,82 +13007,82 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>25.5809</v>
+        <v>1649.19</v>
       </c>
       <c r="C2" s="1">
-        <v>25.6615</v>
+        <v>1649.96</v>
       </c>
       <c r="D2" s="1">
-        <v>25.737200000000001</v>
+        <v>1650.41</v>
       </c>
       <c r="E2" s="1">
-        <v>25.8081</v>
+        <v>1650.56</v>
       </c>
       <c r="F2" s="1">
-        <v>25.874099999999999</v>
+        <v>1650.4</v>
       </c>
       <c r="G2" s="1">
-        <v>25.935199999999998</v>
+        <v>1649.92</v>
       </c>
       <c r="H2" s="1">
-        <v>25.991299999999999</v>
+        <v>1649.14</v>
       </c>
       <c r="I2" s="1">
-        <v>26.0425</v>
+        <v>1648.04</v>
       </c>
       <c r="J2" s="1">
-        <v>26.088799999999999</v>
+        <v>1646.64</v>
       </c>
       <c r="K2" s="1">
-        <v>26.130099999999999</v>
+        <v>1644.92</v>
       </c>
       <c r="L2" s="1">
-        <v>26.166399999999999</v>
+        <v>1642.9</v>
       </c>
       <c r="M2" s="1">
-        <v>26.197700000000001</v>
+        <v>1640.56</v>
       </c>
       <c r="N2" s="1">
-        <v>26.224</v>
+        <v>1637.92</v>
       </c>
       <c r="O2" s="1">
-        <v>26.2453</v>
+        <v>1634.97</v>
       </c>
       <c r="P2" s="1">
-        <v>26.261500000000002</v>
+        <v>1631.72</v>
       </c>
       <c r="Q2" s="1">
-        <v>26.2728</v>
+        <v>1628.16</v>
       </c>
       <c r="R2" s="1">
-        <v>26.279</v>
+        <v>1624.3</v>
       </c>
       <c r="S2" s="1">
-        <v>26.280200000000001</v>
+        <v>1620.13</v>
       </c>
       <c r="T2" s="1">
-        <v>26.276299999999999</v>
+        <v>1615.66</v>
       </c>
       <c r="U2" s="1">
-        <v>26.267499999999998</v>
+        <v>1610.89</v>
       </c>
       <c r="V2" s="1">
-        <v>26.253599999999999</v>
+        <v>1605.82</v>
       </c>
       <c r="W2" s="1">
-        <v>26.2346</v>
+        <v>1600.46</v>
       </c>
       <c r="X2" s="1">
-        <v>26.210699999999999</v>
+        <v>1594.8</v>
       </c>
       <c r="Y2" s="1">
-        <v>26.181799999999999</v>
+        <v>1588.84</v>
       </c>
       <c r="Z2" s="1">
-        <v>26.1478</v>
+        <v>1582.6</v>
       </c>
       <c r="AA2" s="1">
-        <v>26.108899999999998</v>
+        <v>1576.06</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -12799,82 +13090,82 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30.3004</v>
+        <v>2762.55</v>
       </c>
       <c r="C3" s="1">
-        <v>30.427499999999998</v>
+        <v>2773.75</v>
       </c>
       <c r="D3" s="1">
-        <v>30.5488</v>
+        <v>2784.41</v>
       </c>
       <c r="E3" s="1">
-        <v>30.664400000000001</v>
+        <v>2794.54</v>
       </c>
       <c r="F3" s="1">
-        <v>30.7743</v>
+        <v>2804.15</v>
       </c>
       <c r="G3" s="1">
-        <v>30.878399999999999</v>
+        <v>2813.21</v>
       </c>
       <c r="H3" s="1">
-        <v>30.976600000000001</v>
+        <v>2821.74</v>
       </c>
       <c r="I3" s="1">
-        <v>31.068999999999999</v>
+        <v>2829.73</v>
       </c>
       <c r="J3" s="1">
-        <v>31.1555</v>
+        <v>2837.17</v>
       </c>
       <c r="K3" s="1">
-        <v>31.2361</v>
+        <v>2844.07</v>
       </c>
       <c r="L3" s="1">
-        <v>31.3108</v>
+        <v>2850.41</v>
       </c>
       <c r="M3" s="1">
-        <v>31.3795</v>
+        <v>2856.21</v>
       </c>
       <c r="N3" s="1">
-        <v>31.4422</v>
+        <v>2861.46</v>
       </c>
       <c r="O3" s="1">
-        <v>31.498999999999999</v>
+        <v>2866.15</v>
       </c>
       <c r="P3" s="1">
-        <v>31.549700000000001</v>
+        <v>2870.29</v>
       </c>
       <c r="Q3" s="1">
-        <v>31.5944</v>
+        <v>2873.87</v>
       </c>
       <c r="R3" s="1">
-        <v>31.632999999999999</v>
+        <v>2876.9</v>
       </c>
       <c r="S3" s="1">
-        <v>31.665600000000001</v>
+        <v>2879.37</v>
       </c>
       <c r="T3" s="1">
-        <v>31.6921</v>
+        <v>2881.28</v>
       </c>
       <c r="U3" s="1">
-        <v>31.712499999999999</v>
+        <v>2882.63</v>
       </c>
       <c r="V3" s="1">
-        <v>31.726900000000001</v>
+        <v>2883.42</v>
       </c>
       <c r="W3" s="1">
-        <v>31.735199999999999</v>
+        <v>2883.65</v>
       </c>
       <c r="X3" s="1">
-        <v>31.737400000000001</v>
+        <v>2883.32</v>
       </c>
       <c r="Y3" s="1">
-        <v>31.733499999999999</v>
+        <v>2882.42</v>
       </c>
       <c r="Z3" s="1">
-        <v>31.723500000000001</v>
+        <v>2880.97</v>
       </c>
       <c r="AA3" s="1">
-        <v>31.7074</v>
+        <v>2878.97</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -12882,82 +13173,82 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>28.6922</v>
+        <v>2588.88</v>
       </c>
       <c r="C4" s="1">
-        <v>28.776499999999999</v>
+        <v>2596.63</v>
       </c>
       <c r="D4" s="1">
-        <v>28.8553</v>
+        <v>2603.88</v>
       </c>
       <c r="E4" s="1">
-        <v>28.928799999999999</v>
+        <v>2610.64</v>
       </c>
       <c r="F4" s="1">
-        <v>28.9968</v>
+        <v>2616.9</v>
       </c>
       <c r="G4" s="1">
-        <v>29.0594</v>
+        <v>2622.67</v>
       </c>
       <c r="H4" s="1">
-        <v>29.116499999999998</v>
+        <v>2627.94</v>
       </c>
       <c r="I4" s="1">
-        <v>29.168199999999999</v>
+        <v>2632.71</v>
       </c>
       <c r="J4" s="1">
-        <v>29.214300000000001</v>
+        <v>2636.97</v>
       </c>
       <c r="K4" s="1">
-        <v>29.254999999999999</v>
+        <v>2640.73</v>
       </c>
       <c r="L4" s="1">
-        <v>29.290099999999999</v>
+        <v>2643.99</v>
       </c>
       <c r="M4" s="1">
-        <v>29.319700000000001</v>
+        <v>2646.74</v>
       </c>
       <c r="N4" s="1">
-        <v>29.343699999999998</v>
+        <v>2648.98</v>
       </c>
       <c r="O4" s="1">
-        <v>29.362200000000001</v>
+        <v>2650.72</v>
       </c>
       <c r="P4" s="1">
-        <v>29.3751</v>
+        <v>2651.94</v>
       </c>
       <c r="Q4" s="1">
-        <v>29.3825</v>
+        <v>2652.66</v>
       </c>
       <c r="R4" s="1">
-        <v>29.384399999999999</v>
+        <v>2652.87</v>
       </c>
       <c r="S4" s="1">
-        <v>29.380600000000001</v>
+        <v>2652.58</v>
       </c>
       <c r="T4" s="1">
-        <v>29.371300000000002</v>
+        <v>2651.77</v>
       </c>
       <c r="U4" s="1">
-        <v>29.3565</v>
+        <v>2650.46</v>
       </c>
       <c r="V4" s="1">
-        <v>29.336099999999998</v>
+        <v>2648.64</v>
       </c>
       <c r="W4" s="1">
-        <v>29.310099999999998</v>
+        <v>2646.31</v>
       </c>
       <c r="X4" s="1">
-        <v>29.278600000000001</v>
+        <v>2643.47</v>
       </c>
       <c r="Y4" s="1">
-        <v>29.241599999999998</v>
+        <v>2640.13</v>
       </c>
       <c r="Z4" s="1">
-        <v>29.199100000000001</v>
+        <v>2636.28</v>
       </c>
       <c r="AA4" s="1">
-        <v>29.151</v>
+        <v>2631.93</v>
       </c>
     </row>
   </sheetData>
